--- a/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
+++ b/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16680" windowHeight="16960"/>
+    <workbookView windowWidth="16680" windowHeight="16960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,12 +100,118 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -113,8 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,70 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,53 +249,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,25 +307,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +385,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,61 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,67 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +509,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -538,30 +529,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,16 +560,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,153 +588,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,7 +1120,7 @@
   <sheetPr/>
   <dimension ref="A1:A117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+    <sheetView topLeftCell="A128" workbookViewId="0">
       <selection activeCell="E155" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1195,14 +1177,13 @@
   <sheetPr/>
   <dimension ref="B3:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
       <selection activeCell="C71" sqref="C70:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.73076923076923" defaultRowHeight="35" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="6.73076923076923" customWidth="1"/>
-    <col min="257" max="16384" width="6.73076923076923" customWidth="1"/>
+    <col min="1" max="16384" width="6.73076923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="2:3">
@@ -2227,7 +2208,6 @@
       </c>
       <c r="C75" s="3"/>
       <c r="J75" s="6"/>
-      <c r="K75"/>
       <c r="L75" s="1"/>
     </row>
     <row r="76" customHeight="1" spans="2:13">
